--- a/SPRINT 1/SP Med Group/SPMEDGROUP.xlsx
+++ b/SPRINT 1/SP Med Group/SPMEDGROUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44036901818\Documents\dev-2t\SPRINT 1\SP Med Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B4D823-9CFE-4F27-B5E5-871032C9D920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454B32D8-7E63-43F1-B266-1D98E38125AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" tabRatio="429" xr2:uid="{A4FA49FE-2C15-4DA1-B40E-68CC852CBC2B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
   <si>
     <t>Clínica</t>
   </si>
@@ -201,9 +201,6 @@
     <t>idMedico</t>
   </si>
   <si>
-    <t>NomePaciente</t>
-  </si>
-  <si>
     <t>idEspecialidade</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>65463-SP</t>
   </si>
   <si>
-    <t>Helena Strada</t>
-  </si>
-  <si>
     <t>helena.souza@spmedicalgroup.com.br</t>
   </si>
   <si>
@@ -274,13 +268,76 @@
   </si>
   <si>
     <t>Agendada</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>idTipoUsuario</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>123abc</t>
+  </si>
+  <si>
+    <t>def345</t>
+  </si>
+  <si>
+    <t>345def</t>
+  </si>
+  <si>
+    <t>jotape</t>
+  </si>
+  <si>
+    <t>abece</t>
+  </si>
+  <si>
+    <t>abc26</t>
+  </si>
+  <si>
+    <t>Info@sala13</t>
+  </si>
+  <si>
+    <t>admin@spmedicalgroup.com</t>
+  </si>
+  <si>
+    <t>senhasoadmin</t>
+  </si>
+  <si>
+    <t>Leninha</t>
+  </si>
+  <si>
+    <t>Helena Souza</t>
+  </si>
+  <si>
+    <t>Tipo Usuario</t>
+  </si>
+  <si>
+    <t>TipoUsuario</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Comum</t>
+  </si>
+  <si>
+    <t>123.456.789-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +392,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,12 +463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,6 +506,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,9 +577,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -458,12 +587,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -472,43 +596,80 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -516,6 +677,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFCC00CC"/>
+      <color rgb="FF660066"/>
+      <color rgb="FF990099"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -824,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F406FED-2E1F-4E76-8E59-2A8EA5105626}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="G81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,557 +1006,848 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.109375" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="39.77734375" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" customWidth="1"/>
+    <col min="14" max="14" width="72" customWidth="1"/>
     <col min="15" max="15" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H1" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H2" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7">
+        <v>30602</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H4" s="10">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7">
+        <v>37095</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7">
+        <v>28773</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H6" s="10">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7">
+        <v>31333</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7">
+        <v>27633</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H8" s="10">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <v>26379</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H9" s="10">
+        <v>7</v>
+      </c>
+      <c r="I9" s="10">
+        <v>11</v>
+      </c>
+      <c r="J9" s="7">
+        <v>43164</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H11" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="H12" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <v>3</v>
+      </c>
+      <c r="J13" s="16">
+        <v>7</v>
+      </c>
+      <c r="K13" s="17">
+        <v>43850.625</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H14" s="16">
+        <v>2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>2</v>
+      </c>
+      <c r="J14" s="16">
+        <v>2</v>
+      </c>
+      <c r="K14" s="17">
+        <v>43836.416666666664</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H15" s="16">
+        <v>3</v>
+      </c>
+      <c r="I15" s="16">
+        <v>2</v>
+      </c>
+      <c r="J15" s="16">
+        <v>3</v>
+      </c>
+      <c r="K15" s="17">
+        <v>43868.458333333336</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H16" s="16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="16">
+        <v>2</v>
+      </c>
+      <c r="K16" s="17">
+        <v>43137.416666666664</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H17" s="16">
+        <v>5</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16">
+        <v>4</v>
+      </c>
+      <c r="K17" s="17">
+        <v>43503.458333333336</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E18" s="13"/>
+      <c r="H18" s="16">
+        <v>6</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3</v>
+      </c>
+      <c r="J18" s="16">
+        <v>7</v>
+      </c>
+      <c r="K18" s="17">
+        <v>43898.625</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="H19" s="16">
+        <v>7</v>
+      </c>
+      <c r="I19" s="16">
+        <v>2</v>
+      </c>
+      <c r="J19" s="16">
+        <v>4</v>
+      </c>
+      <c r="K19" s="17">
+        <v>43899.458333333336</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H23" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D24" s="13"/>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <v>2</v>
+      </c>
+      <c r="J24" s="12">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H25" s="12">
+        <v>2</v>
+      </c>
+      <c r="I25" s="12">
+        <v>3</v>
+      </c>
+      <c r="J25" s="12">
+        <v>2</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H26" s="12">
+        <v>3</v>
+      </c>
+      <c r="I26" s="12">
+        <v>4</v>
+      </c>
+      <c r="J26" s="12">
+        <v>3</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H31" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="H1" s="16" t="s">
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H32" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H36" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H37" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H38" s="24">
+        <v>1</v>
+      </c>
+      <c r="I38" s="24">
+        <v>3</v>
+      </c>
+      <c r="J38" s="24">
+        <v>1</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H39" s="24">
+        <v>2</v>
+      </c>
+      <c r="I39" s="24">
+        <v>2</v>
+      </c>
+      <c r="J39" s="24">
+        <v>1</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H40" s="24">
+        <v>3</v>
+      </c>
+      <c r="I40" s="24">
+        <v>2</v>
+      </c>
+      <c r="J40" s="24">
+        <v>1</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H41" s="24">
+        <v>4</v>
+      </c>
+      <c r="I41" s="24">
+        <v>2</v>
+      </c>
+      <c r="J41" s="24">
+        <v>1</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H42" s="24">
+        <v>5</v>
+      </c>
+      <c r="I42" s="24">
+        <v>1</v>
+      </c>
+      <c r="J42" s="24">
+        <v>1</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H43" s="24">
+        <v>6</v>
+      </c>
+      <c r="I43" s="24">
+        <v>1</v>
+      </c>
+      <c r="J43" s="24">
+        <v>1</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H44" s="24">
+        <v>7</v>
+      </c>
+      <c r="I44" s="24">
+        <v>1</v>
+      </c>
+      <c r="J44" s="24">
+        <v>1</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H45" s="24">
         <v>8</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="I45" s="24">
+        <v>1</v>
+      </c>
+      <c r="J45" s="24">
+        <v>1</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="24">
+        <v>18101995</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H46" s="24">
+        <v>9</v>
+      </c>
+      <c r="I46" s="24">
+        <v>1</v>
+      </c>
+      <c r="J46" s="24">
+        <v>1</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="24">
+        <v>3021999</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H47" s="24">
+        <v>10</v>
+      </c>
+      <c r="I47" s="24">
+        <v>1</v>
+      </c>
+      <c r="J47" s="24">
+        <v>1</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H48" s="24">
+        <v>11</v>
+      </c>
+      <c r="I48" s="24">
+        <v>1</v>
+      </c>
+      <c r="J48" s="24">
+        <v>1</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H50" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H51" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H52" s="48">
+        <v>1</v>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H55" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H56" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H57" s="15">
+        <v>1</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H58" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="I58" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H59" s="15">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="I59" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H62" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I62" s="27"/>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H63" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H64" s="28">
+        <v>1</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H65" s="28">
+        <v>2</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H66" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="17">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="11">
-        <v>30602</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H4" s="17">
-        <v>2</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="11">
-        <v>37095</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H5" s="17">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="11">
-        <v>28773</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H6" s="17">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="11">
-        <v>31333</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H7" s="17">
-        <v>5</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="11">
-        <v>27633</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H8" s="17">
-        <v>6</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="11">
-        <v>26379</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H9" s="17">
-        <v>7</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="11">
-        <v>43164</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H11" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="H12" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="29">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29">
-        <v>3</v>
-      </c>
-      <c r="J13" s="29">
-        <v>7</v>
-      </c>
-      <c r="K13" s="30">
-        <v>43850.625</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>1</v>
-      </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="29">
-        <v>2</v>
-      </c>
-      <c r="I14" s="29">
-        <v>2</v>
-      </c>
-      <c r="J14" s="29">
-        <v>2</v>
-      </c>
-      <c r="K14" s="30">
-        <v>43836.416666666664</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>2</v>
-      </c>
-      <c r="B15" s="21">
-        <v>2</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="29">
-        <v>3</v>
-      </c>
-      <c r="I15" s="29">
-        <v>2</v>
-      </c>
-      <c r="J15" s="29">
-        <v>3</v>
-      </c>
-      <c r="K15" s="30">
-        <v>43868.458333333336</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>3</v>
-      </c>
-      <c r="B16" s="21">
-        <v>3</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="29">
-        <v>4</v>
-      </c>
-      <c r="I16" s="29">
-        <v>2</v>
-      </c>
-      <c r="J16" s="29">
-        <v>2</v>
-      </c>
-      <c r="K16" s="30">
-        <v>43137.416666666664</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H17" s="29">
-        <v>5</v>
-      </c>
-      <c r="I17" s="29">
-        <v>1</v>
-      </c>
-      <c r="J17" s="29">
-        <v>4</v>
-      </c>
-      <c r="K17" s="30">
-        <v>43503.458333333336</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E18" s="22"/>
-      <c r="H18" s="29">
-        <v>6</v>
-      </c>
-      <c r="I18" s="29">
-        <v>3</v>
-      </c>
-      <c r="J18" s="29">
-        <v>7</v>
-      </c>
-      <c r="K18" s="30">
-        <v>43898.625</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="H19" s="29">
-        <v>7</v>
-      </c>
-      <c r="I19" s="29">
-        <v>2</v>
-      </c>
-      <c r="J19" s="29">
-        <v>4</v>
-      </c>
-      <c r="K19" s="30">
-        <v>43899.458333333336</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="24">
-        <v>1</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="24">
-        <v>2</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="32"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
-        <v>3</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D24" s="22"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E28" s="22"/>
+      <c r="I66" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H1:N1"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="H31:K31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{61481DA8-8103-4B5C-A3B5-7D518575748E}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{DE842DDF-3F5A-4F70-9B84-364F60F7C4D3}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{31924A29-D0A7-4CDA-ABEB-961869D19728}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{AA528A1C-E1CE-4778-827B-A330A7338528}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{D100E109-3F98-4B39-99EA-36BC0B6495CC}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{52D28275-6A69-481D-8F7E-F9C8DD39B474}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{19E22BDC-64FA-4396-B40B-4D69494F1C04}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{5478411B-4497-4808-9478-83F714CA0C09}"/>
-    <hyperlink ref="F15" r:id="rId9" xr:uid="{01B01C0C-4C77-45E0-B230-6AF058E2CC9A}"/>
-    <hyperlink ref="F16" r:id="rId10" xr:uid="{400E980E-43F1-4747-A126-8BE4245C9A0A}"/>
+    <hyperlink ref="K42" r:id="rId1" xr:uid="{61481DA8-8103-4B5C-A3B5-7D518575748E}"/>
+    <hyperlink ref="K43" r:id="rId2" xr:uid="{DE842DDF-3F5A-4F70-9B84-364F60F7C4D3}"/>
+    <hyperlink ref="K44" r:id="rId3" xr:uid="{31924A29-D0A7-4CDA-ABEB-961869D19728}"/>
+    <hyperlink ref="K45" r:id="rId4" xr:uid="{AA528A1C-E1CE-4778-827B-A330A7338528}"/>
+    <hyperlink ref="K46" r:id="rId5" xr:uid="{D100E109-3F98-4B39-99EA-36BC0B6495CC}"/>
+    <hyperlink ref="K47" r:id="rId6" xr:uid="{52D28275-6A69-481D-8F7E-F9C8DD39B474}"/>
+    <hyperlink ref="K48" r:id="rId7" xr:uid="{19E22BDC-64FA-4396-B40B-4D69494F1C04}"/>
+    <hyperlink ref="K40" r:id="rId8" xr:uid="{9D983D31-CA21-469C-9119-CB9439797EE9}"/>
+    <hyperlink ref="K41" r:id="rId9" xr:uid="{C068036B-58EC-42BB-A963-1E7D34662008}"/>
+    <hyperlink ref="K39" r:id="rId10" xr:uid="{0EB06CB1-F076-4653-BA6A-1B5852A9D414}"/>
+    <hyperlink ref="K38" r:id="rId11" xr:uid="{4CC33BDD-11A2-4D1C-8479-9D61902E7E64}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
--- a/SPRINT 1/SP Med Group/SPMEDGROUP.xlsx
+++ b/SPRINT 1/SP Med Group/SPMEDGROUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44036901818\Documents\dev-2t\SPRINT 1\SP Med Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454B32D8-7E63-43F1-B266-1D98E38125AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B6978-4B79-459A-ACFE-39B5045A7D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" tabRatio="429" xr2:uid="{A4FA49FE-2C15-4DA1-B40E-68CC852CBC2B}"/>
   </bookViews>
@@ -306,12 +306,6 @@
     <t>Info@sala13</t>
   </si>
   <si>
-    <t>admin@spmedicalgroup.com</t>
-  </si>
-  <si>
-    <t>senhasoadmin</t>
-  </si>
-  <si>
     <t>Leninha</t>
   </si>
   <si>
@@ -331,6 +325,12 @@
   </si>
   <si>
     <t>123.456.789-11</t>
+  </si>
+  <si>
+    <t>admin@spmedicalgroup.com.br</t>
+  </si>
+  <si>
+    <t>senhadoadmin</t>
   </si>
 </sst>
 </file>
@@ -623,51 +623,51 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F406FED-2E1F-4E76-8E59-2A8EA5105626}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,36 +1021,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1214,34 +1214,34 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="H12" s="42" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="H12" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="34" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1349,8 +1349,8 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="H19" s="16">
         <v>7</v>
       </c>
@@ -1368,24 +1368,24 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="33" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1434,24 +1434,24 @@
       <c r="N26" s="13"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H32" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="38" t="s">
+      <c r="H32" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="38" t="s">
+      <c r="K32" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1470,32 +1470,32 @@
       </c>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="36" t="s">
+      <c r="J37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="35" t="s">
+      <c r="L37" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="M37" s="35" t="s">
+      <c r="M37" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1510,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="K38" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.3">
@@ -1576,7 +1576,7 @@
         <v>87</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.3">
@@ -1720,38 +1720,39 @@
       </c>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H50" s="46" t="s">
+      <c r="H50" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="45"/>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H51" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H52" s="39">
+        <v>1</v>
+      </c>
+      <c r="I52" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="I50" s="46"/>
-    </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H51" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" s="47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H52" s="48">
-        <v>1</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H55" s="32" t="s">
+      <c r="H55" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="32"/>
+      <c r="I55" s="40"/>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I56" s="33" t="s">
+      <c r="I56" s="29" t="s">
         <v>70</v>
       </c>
       <c r="L56" s="19"/>
@@ -1781,41 +1782,41 @@
       </c>
     </row>
     <row r="62" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H62" s="30" t="s">
+      <c r="H62" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" s="43"/>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H63" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H64" s="26">
+        <v>1</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H65" s="26">
+        <v>2</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H66" s="26">
+        <v>3</v>
+      </c>
+      <c r="I66" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H63" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H64" s="28">
-        <v>1</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H65" s="28">
-        <v>2</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H66" s="28">
-        <v>3</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
@@ -1824,15 +1825,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H31:K31"/>
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="H36:M36"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H31:K31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K42" r:id="rId1" xr:uid="{61481DA8-8103-4B5C-A3B5-7D518575748E}"/>
